--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H2">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>58.18790017758183</v>
+        <v>113.7865632184306</v>
       </c>
       <c r="R2">
-        <v>58.18790017758183</v>
+        <v>1024.079068965875</v>
       </c>
       <c r="S2">
-        <v>0.0187214868289362</v>
+        <v>0.02958319354264483</v>
       </c>
       <c r="T2">
-        <v>0.0187214868289362</v>
+        <v>0.02958319354264484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H3">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>31.23520988758418</v>
+        <v>47.41215295786667</v>
       </c>
       <c r="R3">
-        <v>31.23520988758418</v>
+        <v>426.7093766208</v>
       </c>
       <c r="S3">
-        <v>0.01004967645721576</v>
+        <v>0.01232661271729898</v>
       </c>
       <c r="T3">
-        <v>0.01004967645721576</v>
+        <v>0.01232661271729898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H4">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>2.530849429091512</v>
+        <v>3.946852734752778</v>
       </c>
       <c r="R4">
-        <v>2.530849429091512</v>
+        <v>35.521674612775</v>
       </c>
       <c r="S4">
-        <v>0.0008142803591151431</v>
+        <v>0.001026136171389314</v>
       </c>
       <c r="T4">
-        <v>0.0008142803591151431</v>
+        <v>0.001026136171389314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H5">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I5">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J5">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>2.505075518531104</v>
+        <v>3.69866930355</v>
       </c>
       <c r="R5">
-        <v>2.505075518531104</v>
+        <v>33.28802373195</v>
       </c>
       <c r="S5">
-        <v>0.0008059878115990058</v>
+        <v>0.000961611342871071</v>
       </c>
       <c r="T5">
-        <v>0.0008059878115990058</v>
+        <v>0.0009616113428710713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>344.316357363886</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H6">
-        <v>344.316357363886</v>
+        <v>51.641525</v>
       </c>
       <c r="I6">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J6">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>1766.469756788541</v>
+        <v>4.573402143736111</v>
       </c>
       <c r="R6">
-        <v>1766.469756788541</v>
+        <v>41.160619293625</v>
       </c>
       <c r="S6">
-        <v>0.5683473743596629</v>
+        <v>0.001189031788461448</v>
       </c>
       <c r="T6">
-        <v>0.5683473743596629</v>
+        <v>0.001189031788461449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H7">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J7">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>948.2392979463048</v>
+        <v>2292.06051129544</v>
       </c>
       <c r="R7">
-        <v>948.2392979463048</v>
+        <v>20628.54460165896</v>
       </c>
       <c r="S7">
-        <v>0.3050883340523254</v>
+        <v>0.5959092866434648</v>
       </c>
       <c r="T7">
-        <v>0.3050883340523254</v>
+        <v>0.5959092866434651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H8">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J8">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>76.83159147918735</v>
+        <v>955.0470677422079</v>
       </c>
       <c r="R8">
-        <v>76.83159147918735</v>
+        <v>8595.423609679872</v>
       </c>
       <c r="S8">
-        <v>0.02471994389785505</v>
+        <v>0.248301218071914</v>
       </c>
       <c r="T8">
-        <v>0.02471994389785505</v>
+        <v>0.2483012180719142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H9">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J9">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>76.04914644542285</v>
+        <v>79.50345841678399</v>
       </c>
       <c r="R9">
-        <v>76.04914644542285</v>
+        <v>715.5311257510559</v>
       </c>
       <c r="S9">
-        <v>0.02446819852898484</v>
+        <v>0.02066998186014618</v>
       </c>
       <c r="T9">
-        <v>0.02446819852898484</v>
+        <v>0.02066998186014619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5343471090724</v>
+        <v>346.747152</v>
       </c>
       <c r="H10">
-        <v>17.5343471090724</v>
+        <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.04698471770430578</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J10">
-        <v>0.04698471770430578</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>89.95766018886707</v>
+        <v>74.504173561632</v>
       </c>
       <c r="R10">
-        <v>89.95766018886707</v>
+        <v>670.537562054688</v>
       </c>
       <c r="S10">
-        <v>0.02894315047025267</v>
+        <v>0.01937022548064407</v>
       </c>
       <c r="T10">
-        <v>0.02894315047025267</v>
+        <v>0.01937022548064408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5343471090724</v>
+        <v>346.747152</v>
       </c>
       <c r="H11">
-        <v>17.5343471090724</v>
+        <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.04698471770430578</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J11">
-        <v>0.04698471770430578</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>48.28918707188189</v>
+        <v>92.12436125527999</v>
       </c>
       <c r="R11">
-        <v>48.28918707188189</v>
+        <v>829.11925129752</v>
       </c>
       <c r="S11">
-        <v>0.01553665585091136</v>
+        <v>0.02395127097542958</v>
       </c>
       <c r="T11">
-        <v>0.01553665585091136</v>
+        <v>0.02395127097542959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>17.5343471090724</v>
+        <v>0.042542</v>
       </c>
       <c r="H12">
-        <v>17.5343471090724</v>
+        <v>0.127626</v>
       </c>
       <c r="I12">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="J12">
-        <v>0.04698471770430578</v>
+        <v>0.000111426232455776</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>3.912656965392902</v>
+        <v>0.2812102066566667</v>
       </c>
       <c r="R12">
-        <v>3.912656965392902</v>
+        <v>2.530891859910001</v>
       </c>
       <c r="S12">
-        <v>0.001258865771409468</v>
+        <v>7.311140906612632E-05</v>
       </c>
       <c r="T12">
-        <v>0.001258865771409468</v>
+        <v>7.311140906612636E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.042542</v>
+      </c>
+      <c r="H13">
+        <v>0.127626</v>
+      </c>
+      <c r="I13">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J13">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.754304</v>
+      </c>
+      <c r="N13">
+        <v>8.262912</v>
+      </c>
+      <c r="O13">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P13">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q13">
+        <v>0.117173600768</v>
+      </c>
+      <c r="R13">
+        <v>1.054562406912</v>
+      </c>
+      <c r="S13">
+        <v>3.0463784225156E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.046378422515602E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.042542</v>
+      </c>
+      <c r="H14">
+        <v>0.127626</v>
+      </c>
+      <c r="I14">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J14">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.687851</v>
+      </c>
+      <c r="O14">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P14">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q14">
+        <v>0.009754185747333334</v>
+      </c>
+      <c r="R14">
+        <v>0.08778767172600001</v>
+      </c>
+      <c r="S14">
+        <v>2.535975748387225E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.535975748387226E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.042542</v>
+      </c>
+      <c r="H15">
+        <v>0.127626</v>
+      </c>
+      <c r="I15">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J15">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.214866</v>
+      </c>
+      <c r="N15">
+        <v>0.644598</v>
+      </c>
+      <c r="O15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q15">
+        <v>0.009140829372000002</v>
+      </c>
+      <c r="R15">
+        <v>0.08226746434800002</v>
+      </c>
+      <c r="S15">
+        <v>2.376510167839995E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.376510167839996E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.042542</v>
+      </c>
+      <c r="H16">
+        <v>0.127626</v>
+      </c>
+      <c r="I16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.797045</v>
+      </c>
+      <c r="O16">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P16">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q16">
+        <v>0.01130262946333333</v>
+      </c>
+      <c r="R16">
+        <v>0.10172366517</v>
+      </c>
+      <c r="S16">
+        <v>2.938553248266406E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.938553248266407E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.194746</v>
+      </c>
+      <c r="I17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.830535</v>
+      </c>
+      <c r="O17">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P17">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q17">
+        <v>0.4291019299011112</v>
+      </c>
+      <c r="R17">
+        <v>3.86191736911</v>
+      </c>
+      <c r="S17">
+        <v>0.0001115615507027709</v>
+      </c>
+      <c r="T17">
+        <v>0.0001115615507027709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.194746</v>
+      </c>
+      <c r="I18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P18">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q18">
+        <v>0.1787965622613333</v>
+      </c>
+      <c r="R18">
+        <v>1.609169060352</v>
+      </c>
+      <c r="S18">
+        <v>4.648504319427257E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.648504319427259E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="H13">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="I13">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="J13">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q13">
-        <v>3.872810868852977</v>
-      </c>
-      <c r="R13">
-        <v>3.872810868852977</v>
-      </c>
-      <c r="S13">
-        <v>0.001246045611732283</v>
-      </c>
-      <c r="T13">
-        <v>0.001246045611732283</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.194746</v>
+      </c>
+      <c r="I19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.687851</v>
+      </c>
+      <c r="O19">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P19">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q19">
+        <v>0.01488402564955556</v>
+      </c>
+      <c r="R19">
+        <v>0.133956230846</v>
+      </c>
+      <c r="S19">
+        <v>3.869674933755023E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.869674933755023E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.194746</v>
+      </c>
+      <c r="I20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214866</v>
+      </c>
+      <c r="N20">
+        <v>0.644598</v>
+      </c>
+      <c r="O20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q20">
+        <v>0.013948098012</v>
+      </c>
+      <c r="R20">
+        <v>0.125532882108</v>
+      </c>
+      <c r="S20">
+        <v>3.626344546927489E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.62634454692749E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.194746</v>
+      </c>
+      <c r="I21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.797045</v>
+      </c>
+      <c r="O21">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P21">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q21">
+        <v>0.01724681395222222</v>
+      </c>
+      <c r="R21">
+        <v>0.15522132557</v>
+      </c>
+      <c r="S21">
+        <v>4.483972630082346E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.483972630082347E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H22">
+        <v>53.180228</v>
+      </c>
+      <c r="I22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>117.1769302957756</v>
+      </c>
+      <c r="R22">
+        <v>1054.59237266198</v>
+      </c>
+      <c r="S22">
+        <v>0.03046464986396083</v>
+      </c>
+      <c r="T22">
+        <v>0.03046464986396084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H23">
+        <v>53.180228</v>
+      </c>
+      <c r="I23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>48.82483823377066</v>
+      </c>
+      <c r="R23">
+        <v>439.423544103936</v>
+      </c>
+      <c r="S23">
+        <v>0.01269389458916364</v>
+      </c>
+      <c r="T23">
+        <v>0.01269389458916365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H24">
+        <v>53.180228</v>
+      </c>
+      <c r="I24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>4.064452556669778</v>
+      </c>
+      <c r="R24">
+        <v>36.580073010028</v>
+      </c>
+      <c r="S24">
+        <v>0.001056710768195378</v>
+      </c>
+      <c r="T24">
+        <v>0.001056710768195378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H25">
+        <v>53.180228</v>
+      </c>
+      <c r="I25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>3.808874289816</v>
+      </c>
+      <c r="R25">
+        <v>34.279868608344</v>
+      </c>
+      <c r="S25">
+        <v>0.0009902633677310985</v>
+      </c>
+      <c r="T25">
+        <v>0.000990263367731099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H26">
+        <v>53.180228</v>
+      </c>
+      <c r="I26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>4.709670536251111</v>
+      </c>
+      <c r="R26">
+        <v>42.38703482626</v>
+      </c>
+      <c r="S26">
+        <v>0.001224459998220959</v>
+      </c>
+      <c r="T26">
+        <v>0.001224459998220959</v>
       </c>
     </row>
   </sheetData>
